--- a/9_Docs/11_AbhiRam/Abhiram_NC/Birthday/Abhiram_Birthday.xlsx
+++ b/9_Docs/11_AbhiRam/Abhiram_NC/Birthday/Abhiram_Birthday.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adponlineind-my.sharepoint.com/personal/gangigua_es_ad_adp_com/Documents/Documents/2022/Amar_2023/9_Docs/11_AbhiRam/Abhiram_NC/Birthday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="11_F25DC773A252ABDACC1048FEE9DB76AE5BDE58F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47137E35-7065-4224-B852-1889A74E6EB1}"/>
+  <xr:revisionPtr revIDLastSave="689" documentId="11_F25DC773A252ABDACC1048FEE9DB76AE5BDE58F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F777170F-9392-4FA1-BF47-223A1D6106AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birthday" sheetId="1" r:id="rId1"/>
-    <sheet name="Halls" sheetId="3" r:id="rId2"/>
-    <sheet name="Annaprasana" sheetId="2" r:id="rId3"/>
+    <sheet name="invite" sheetId="4" r:id="rId2"/>
+    <sheet name="Halls" sheetId="3" r:id="rId3"/>
+    <sheet name="Annaprasana" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Annaprasana!$D$4:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Annaprasana!$D$4:$H$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>S.No</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Family</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Amar</t>
   </si>
   <si>
@@ -130,64 +128,13 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Chairs</t>
-  </si>
-  <si>
-    <t>Wash basin</t>
-  </si>
-  <si>
-    <t>Waste tubs</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Lunch item</t>
-  </si>
-  <si>
-    <t>Tent Item</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Plates</t>
-  </si>
-  <si>
-    <t>Water bottles</t>
-  </si>
-  <si>
-    <t>Tissues</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Tent</t>
-  </si>
-  <si>
-    <t>Lunch items</t>
-  </si>
-  <si>
-    <t>Tables+ Frill</t>
-  </si>
-  <si>
-    <t>coolers</t>
-  </si>
-  <si>
-    <t>Pujari donate</t>
-  </si>
-  <si>
-    <t>pooja arrangements</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
     <t>Rahul Sakala</t>
-  </si>
-  <si>
-    <t>Paan</t>
   </si>
   <si>
     <t>Rice</t>
@@ -412,6 +359,114 @@
   </si>
   <si>
     <t>https://www.google.com/maps/place/Hotel+GiS+Select+Banjara+Hills/@17.4196779,78.4437269,17z/data=!4m9!3m8!1s0x3bcb9732347ca2a3:0x3bf1477b6fa37dc8!5m2!4m1!1i2!8m2!3d17.4207886!4d78.44392!16s%2Fg%2F11cn2m0mcf?entry=ttu</t>
+  </si>
+  <si>
+    <t>Shyamu</t>
+  </si>
+  <si>
+    <t>Arifa, Vidya, Nibi, Arun, Dev</t>
+  </si>
+  <si>
+    <t>pradeep mama</t>
+  </si>
+  <si>
+    <t>sandeep mama</t>
+  </si>
+  <si>
+    <t>varshitha</t>
+  </si>
+  <si>
+    <t>prameela atha</t>
+  </si>
+  <si>
+    <t>jyothsna akka</t>
+  </si>
+  <si>
+    <t>koduru atha</t>
+  </si>
+  <si>
+    <t>Vasundhara atha</t>
+  </si>
+  <si>
+    <t>Nallas Hall</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Anchoring</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>850 per plate</t>
+  </si>
+  <si>
+    <t>25 sheets - 100 pics</t>
+  </si>
+  <si>
+    <t>Pax</t>
+  </si>
+  <si>
+    <t>9 + Ramu + Sridhar + Srini + Varun</t>
+  </si>
+  <si>
+    <t>GIS Select</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>Gymkhana club</t>
+  </si>
+  <si>
+    <t>Film nagar club</t>
+  </si>
+  <si>
+    <t>Sri Kanya</t>
+  </si>
+  <si>
+    <t>Our palace</t>
+  </si>
+  <si>
+    <t>Sithara hotel</t>
+  </si>
+  <si>
+    <t>Sithara Grand</t>
+  </si>
+  <si>
+    <t>Nallas</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>SVM banjara hills</t>
+  </si>
+  <si>
+    <t>Marigold</t>
+  </si>
+  <si>
+    <t>Aditya park</t>
+  </si>
+  <si>
+    <t>Rajeswari</t>
+  </si>
+  <si>
+    <t>Lakshmi Parents</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -443,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,8 +517,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,12 +571,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,9 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +633,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,6 +665,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E4:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,8 +947,8 @@
     <col min="9" max="9" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:19" x14ac:dyDescent="0.3">
@@ -851,32 +959,32 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>28</v>
+      <c r="Q4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="5:19" x14ac:dyDescent="0.3">
@@ -884,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -896,23 +1004,24 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2">
-        <v>40</v>
-      </c>
-      <c r="P5" s="2">
-        <v>400</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="3">
-        <f>(180*60)</f>
-        <v>10800</v>
+        <v>19</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="3">
+        <f>(850*100)</f>
+        <v>85000</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R5" s="3">
+        <f>(P5-Q5)</f>
+        <v>65000</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.3">
@@ -920,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -930,22 +1039,23 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="2">
-        <v>4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>800</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1800</v>
+        <v>20</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" ref="R6:R11" si="0">(P6-Q6)</f>
+        <v>5000</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.3">
@@ -953,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -963,30 +1073,29 @@
         <v>3</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>300</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="3">
-        <v>1600</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -998,19 +1107,20 @@
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>200</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S8" s="3"/>
     </row>
@@ -1019,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <v>4</v>
@@ -1031,15 +1141,16 @@
         <v>5</v>
       </c>
       <c r="L9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="2">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>45</v>
+      <c r="O9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="S9" s="3"/>
     </row>
@@ -1048,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1056,27 +1167,21 @@
       <c r="H10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="10">
-        <v>2</v>
-      </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="3">
-        <f>(50*30)</f>
-        <v>1500</v>
-      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E11" s="2">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
@@ -1086,10 +1191,13 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="10"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.3">
@@ -1097,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -1107,20 +1215,17 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
-      <c r="N12" s="3"/>
       <c r="O12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="11">
+        <v>12</v>
+      </c>
+      <c r="P12" s="17">
         <f>SUM(P5:P10)</f>
-        <v>1800</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="4">
-        <f>SUM(S5:S10)</f>
-        <v>15700</v>
+        <v>124400</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21">
+        <f>SUM(R5:R11)</f>
+        <v>85000</v>
       </c>
     </row>
     <row r="13" spans="5:19" x14ac:dyDescent="0.3">
@@ -1128,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
@@ -1142,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -1150,22 +1255,13 @@
       <c r="H14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="3"/>
-      <c r="N14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1173,14 +1269,11 @@
       <c r="H15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="2">
-        <v>70</v>
-      </c>
-      <c r="P15" s="2">
-        <v>700</v>
+      <c r="N15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="5:19" x14ac:dyDescent="0.3">
@@ -1188,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2">
         <v>4</v>
@@ -1196,22 +1289,19 @@
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" s="2">
-        <v>70</v>
-      </c>
-      <c r="P16" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2">
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
@@ -1219,22 +1309,19 @@
       <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2</v>
-      </c>
-      <c r="P17" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N17" s="9">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -1242,22 +1329,19 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="2">
-        <v>50</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N18" s="9">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <v>15</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
@@ -1265,20 +1349,19 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="5">
-        <f>SUM(P15:P18)</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="9">
+        <v>4</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
@@ -1286,13 +1369,19 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="9">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <v>17</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -1300,13 +1389,19 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="9">
+        <v>6</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -1314,136 +1409,174 @@
       <c r="H22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="9">
+        <v>7</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
       </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="9">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="9">
+        <v>9</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>21</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2">
         <v>15</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="N25" s="9">
+        <v>10</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="10">
+        <v>69</v>
+      </c>
+      <c r="G26" s="9">
         <v>10</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="N26" s="9">
+        <v>11</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2">
         <v>23</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
         <v>5</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="N27" s="9">
+        <v>12</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E28" s="2">
         <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E29" s="2">
         <v>25</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="10">
+        <v>74</v>
+      </c>
+      <c r="G29" s="9">
         <v>10</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E30" s="2">
         <v>26</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="10">
+    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="9">
         <v>27</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2">
         <v>7</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E32" s="2">
         <v>28</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -1455,14 +1588,14 @@
         <v>29</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G33" s="2">
         <v>5</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.3">
@@ -1470,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1482,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -1496,7 +1629,7 @@
         <v>32</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
@@ -1510,14 +1643,14 @@
         <v>33</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G37" s="2">
         <v>5</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.3">
@@ -1529,13 +1662,13 @@
     <row r="39" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="5">
         <f>SUM(G5:G37)</f>
         <v>126</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <f>SUM(H5:H38)</f>
         <v>20</v>
       </c>
@@ -1547,6 +1680,601 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6132C9B0-8ECE-4F13-A091-5473BC94727C}">
+  <dimension ref="C4:G48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="20">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="20">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="20">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="20">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>23</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="14"/>
+      <c r="G27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="20">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <v>26</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>27</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>28</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="20">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <v>30</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <v>31</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2">
+        <v>32</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="3:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <v>33</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <v>39</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5">
+        <f>SUM(E5:E46)</f>
+        <v>85</v>
+      </c>
+      <c r="F47" s="10">
+        <f>SUM(F5:F43)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="19">
+        <f>SUM(E47:F47)</f>
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4144A6-9F65-4C7A-AF54-54AFA53675BA}">
   <dimension ref="F6:J12"/>
   <sheetViews>
@@ -1561,22 +2289,22 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>111</v>
+      <c r="F6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3">
         <v>200</v>
@@ -1585,12 +2313,12 @@
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -1599,24 +2327,24 @@
         <v>700</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F9" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F10" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1624,19 +2352,19 @@
     </row>
     <row r="11" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F11" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G11" s="3">
         <v>175</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="6:10" x14ac:dyDescent="0.3">
@@ -1653,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0919263-3760-434E-8AB4-9CA153AE78A5}">
   <dimension ref="D4:H18"/>
   <sheetViews>
@@ -1674,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.3">
@@ -1691,14 +2419,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
@@ -1706,14 +2434,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.3">
@@ -1721,14 +2449,14 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.3">
@@ -1736,14 +2464,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
@@ -1751,16 +2479,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
@@ -1768,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
@@ -1785,31 +2513,31 @@
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>78</v>
+      <c r="H12" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
@@ -1817,16 +2545,16 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.3">
@@ -1834,14 +2562,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.3">
@@ -1849,14 +2577,14 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
@@ -1864,14 +2592,14 @@
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
@@ -1879,14 +2607,14 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
@@ -1894,14 +2622,14 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
